--- a/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Liquidez en dólares 2019 - Diaria.xlsx
+++ b/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Liquidez en dólares 2019 - Diaria.xlsx
@@ -19,151 +19,151 @@
     <t>Serie</t>
   </si>
   <si>
-    <t>14.Nov.2019</t>
-  </si>
-  <si>
-    <t>15.Nov.2019</t>
-  </si>
-  <si>
-    <t>16.Nov.2019</t>
-  </si>
-  <si>
-    <t>17.Nov.2019</t>
-  </si>
-  <si>
-    <t>18.Nov.2019</t>
-  </si>
-  <si>
-    <t>19.Nov.2019</t>
-  </si>
-  <si>
-    <t>20.Nov.2019</t>
-  </si>
-  <si>
-    <t>21.Nov.2019</t>
-  </si>
-  <si>
-    <t>22.Nov.2019</t>
-  </si>
-  <si>
-    <t>23.Nov.2019</t>
-  </si>
-  <si>
-    <t>24.Nov.2019</t>
-  </si>
-  <si>
-    <t>25.Nov.2019</t>
-  </si>
-  <si>
-    <t>26.Nov.2019</t>
-  </si>
-  <si>
-    <t>27.Nov.2019</t>
-  </si>
-  <si>
-    <t>28.Nov.2019</t>
-  </si>
-  <si>
-    <t>29.Nov.2019</t>
-  </si>
-  <si>
-    <t>30.Nov.2019</t>
-  </si>
-  <si>
-    <t>01.Dic.2019</t>
-  </si>
-  <si>
-    <t>02.Dic.2019</t>
-  </si>
-  <si>
-    <t>03.Dic.2019</t>
-  </si>
-  <si>
-    <t>04.Dic.2019</t>
-  </si>
-  <si>
-    <t>05.Dic.2019</t>
-  </si>
-  <si>
-    <t>06.Dic.2019</t>
-  </si>
-  <si>
-    <t>07.Dic.2019</t>
-  </si>
-  <si>
-    <t>08.Dic.2019</t>
-  </si>
-  <si>
-    <t>09.Dic.2019</t>
-  </si>
-  <si>
-    <t>10.Dic.2019</t>
-  </si>
-  <si>
-    <t>11.Dic.2019</t>
-  </si>
-  <si>
-    <t>12.Dic.2019</t>
-  </si>
-  <si>
-    <t>13.Dic.2019</t>
-  </si>
-  <si>
-    <t>14.Dic.2019</t>
-  </si>
-  <si>
-    <t>15.Dic.2019</t>
-  </si>
-  <si>
-    <t>16.Dic.2019</t>
-  </si>
-  <si>
-    <t>17.Dic.2019</t>
-  </si>
-  <si>
-    <t>18.Dic.2019</t>
-  </si>
-  <si>
-    <t>19.Dic.2019</t>
-  </si>
-  <si>
-    <t>20.Dic.2019</t>
-  </si>
-  <si>
-    <t>21.Dic.2019</t>
-  </si>
-  <si>
-    <t>22.Dic.2019</t>
-  </si>
-  <si>
-    <t>23.Dic.2019</t>
-  </si>
-  <si>
-    <t>24.Dic.2019</t>
-  </si>
-  <si>
-    <t>25.Dic.2019</t>
-  </si>
-  <si>
-    <t>26.Dic.2019</t>
-  </si>
-  <si>
-    <t>27.Dic.2019</t>
-  </si>
-  <si>
-    <t>28.Dic.2019</t>
-  </si>
-  <si>
-    <t>29.Dic.2019</t>
-  </si>
-  <si>
-    <t>30.Dic.2019</t>
-  </si>
-  <si>
-    <t>31.Dic.2019</t>
-  </si>
-  <si>
     <t>FX Swap, Stock Vigente</t>
+  </si>
+  <si>
+    <t>14-11-2019</t>
+  </si>
+  <si>
+    <t>15-11-2019</t>
+  </si>
+  <si>
+    <t>16-11-2019</t>
+  </si>
+  <si>
+    <t>17-11-2019</t>
+  </si>
+  <si>
+    <t>18-11-2019</t>
+  </si>
+  <si>
+    <t>19-11-2019</t>
+  </si>
+  <si>
+    <t>20-11-2019</t>
+  </si>
+  <si>
+    <t>21-11-2019</t>
+  </si>
+  <si>
+    <t>22-11-2019</t>
+  </si>
+  <si>
+    <t>23-11-2019</t>
+  </si>
+  <si>
+    <t>24-11-2019</t>
+  </si>
+  <si>
+    <t>25-11-2019</t>
+  </si>
+  <si>
+    <t>26-11-2019</t>
+  </si>
+  <si>
+    <t>27-11-2019</t>
+  </si>
+  <si>
+    <t>28-11-2019</t>
+  </si>
+  <si>
+    <t>29-11-2019</t>
+  </si>
+  <si>
+    <t>30-11-2019</t>
+  </si>
+  <si>
+    <t>01-12-2019</t>
+  </si>
+  <si>
+    <t>02-12-2019</t>
+  </si>
+  <si>
+    <t>03-12-2019</t>
+  </si>
+  <si>
+    <t>04-12-2019</t>
+  </si>
+  <si>
+    <t>05-12-2019</t>
+  </si>
+  <si>
+    <t>06-12-2019</t>
+  </si>
+  <si>
+    <t>07-12-2019</t>
+  </si>
+  <si>
+    <t>08-12-2019</t>
+  </si>
+  <si>
+    <t>09-12-2019</t>
+  </si>
+  <si>
+    <t>10-12-2019</t>
+  </si>
+  <si>
+    <t>11-12-2019</t>
+  </si>
+  <si>
+    <t>12-12-2019</t>
+  </si>
+  <si>
+    <t>13-12-2019</t>
+  </si>
+  <si>
+    <t>14-12-2019</t>
+  </si>
+  <si>
+    <t>15-12-2019</t>
+  </si>
+  <si>
+    <t>16-12-2019</t>
+  </si>
+  <si>
+    <t>17-12-2019</t>
+  </si>
+  <si>
+    <t>18-12-2019</t>
+  </si>
+  <si>
+    <t>19-12-2019</t>
+  </si>
+  <si>
+    <t>20-12-2019</t>
+  </si>
+  <si>
+    <t>21-12-2019</t>
+  </si>
+  <si>
+    <t>22-12-2019</t>
+  </si>
+  <si>
+    <t>23-12-2019</t>
+  </si>
+  <si>
+    <t>24-12-2019</t>
+  </si>
+  <si>
+    <t>25-12-2019</t>
+  </si>
+  <si>
+    <t>26-12-2019</t>
+  </si>
+  <si>
+    <t>27-12-2019</t>
+  </si>
+  <si>
+    <t>28-12-2019</t>
+  </si>
+  <si>
+    <t>29-12-2019</t>
+  </si>
+  <si>
+    <t>30-12-2019</t>
+  </si>
+  <si>
+    <t>31-12-2019</t>
   </si>
 </sst>
 </file>
@@ -521,406 +521,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>370</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>670</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>870</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>920</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>920</v>
+        <v>940</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>940</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>940</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1100</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1100</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1100</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1100</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>1100</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>830</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>830</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>830</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>610</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
         <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
         <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
         <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>350</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
         <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
         <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
         <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
         <v>190</v>
       </c>
     </row>
